--- a/backtest_results.xlsx
+++ b/backtest_results.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S67"/>
+  <dimension ref="A1:S94"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3648,6 +3648,1669 @@
         <v>0.0264670934090445</v>
       </c>
     </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>67</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>ma_cross</t>
+        </is>
+      </c>
+      <c r="C68" s="2" t="n">
+        <v>45856.57986111111</v>
+      </c>
+      <c r="D68" s="2" t="n">
+        <v>45860.04861111111</v>
+      </c>
+      <c r="E68" t="n">
+        <v>100</v>
+      </c>
+      <c r="F68" t="n">
+        <v>101.6003658348125</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0.01600365834812507</v>
+      </c>
+      <c r="H68" t="n">
+        <v>5.901201794009611</v>
+      </c>
+      <c r="I68" t="n">
+        <v>10.24041713140712</v>
+      </c>
+      <c r="J68" t="n">
+        <v>-0.01893682509976471</v>
+      </c>
+      <c r="K68" t="n">
+        <v>66</v>
+      </c>
+      <c r="L68" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M68" t="n">
+        <v>0.08042791001538047</v>
+      </c>
+      <c r="N68" t="n">
+        <v>-0.05181878305424437</v>
+      </c>
+      <c r="O68" t="n">
+        <v>1.552099552997757</v>
+      </c>
+      <c r="P68" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>0.7386489859607628</v>
+      </c>
+      <c r="R68" t="n">
+        <v>0.007386489859607628</v>
+      </c>
+      <c r="S68" t="n">
+        <v>0.008617168488517443</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>68</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>ma_cross</t>
+        </is>
+      </c>
+      <c r="C69" s="2" t="n">
+        <v>45859.35625</v>
+      </c>
+      <c r="D69" s="2" t="n">
+        <v>45860.05</v>
+      </c>
+      <c r="E69" t="n">
+        <v>100</v>
+      </c>
+      <c r="F69" t="n">
+        <v>100.1820636137033</v>
+      </c>
+      <c r="G69" t="n">
+        <v>0.001820636137033489</v>
+      </c>
+      <c r="H69" t="n">
+        <v>0.001820636137033489</v>
+      </c>
+      <c r="I69" t="n">
+        <v>2.772451822450027</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-0.01342259927353995</v>
+      </c>
+      <c r="K69" t="n">
+        <v>55</v>
+      </c>
+      <c r="L69" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M69" t="n">
+        <v>0.02685589449853712</v>
+      </c>
+      <c r="N69" t="n">
+        <v>-0.02034938717390657</v>
+      </c>
+      <c r="O69" t="n">
+        <v>1.319739718401626</v>
+      </c>
+      <c r="P69" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>0.6180313412341132</v>
+      </c>
+      <c r="R69" t="n">
+        <v>0.006180313412341132</v>
+      </c>
+      <c r="S69" t="n">
+        <v>-0.004359677275307642</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>69</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>momentum</t>
+        </is>
+      </c>
+      <c r="C70" s="2" t="n">
+        <v>45859.35625</v>
+      </c>
+      <c r="D70" s="2" t="n">
+        <v>45860.05</v>
+      </c>
+      <c r="E70" t="n">
+        <v>100</v>
+      </c>
+      <c r="F70" t="n">
+        <v>100</v>
+      </c>
+      <c r="G70" t="n">
+        <v>0</v>
+      </c>
+      <c r="H70" t="n">
+        <v>0</v>
+      </c>
+      <c r="I70" t="n">
+        <v>0</v>
+      </c>
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
+      <c r="K70" t="n">
+        <v>0</v>
+      </c>
+      <c r="L70" t="n">
+        <v>0</v>
+      </c>
+      <c r="M70" t="n">
+        <v>0</v>
+      </c>
+      <c r="N70" t="n">
+        <v>0</v>
+      </c>
+      <c r="O70" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="P70" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>0</v>
+      </c>
+      <c r="R70" t="n">
+        <v>0</v>
+      </c>
+      <c r="S70" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>70</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>momentum</t>
+        </is>
+      </c>
+      <c r="C71" s="2" t="n">
+        <v>45857.96875</v>
+      </c>
+      <c r="D71" s="2" t="n">
+        <v>45860.05</v>
+      </c>
+      <c r="E71" t="n">
+        <v>100</v>
+      </c>
+      <c r="F71" t="n">
+        <v>100</v>
+      </c>
+      <c r="G71" t="n">
+        <v>0</v>
+      </c>
+      <c r="H71" t="n">
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
+        <v>0</v>
+      </c>
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
+      <c r="K71" t="n">
+        <v>0</v>
+      </c>
+      <c r="L71" t="n">
+        <v>0</v>
+      </c>
+      <c r="M71" t="n">
+        <v>0</v>
+      </c>
+      <c r="N71" t="n">
+        <v>0</v>
+      </c>
+      <c r="O71" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="P71" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>0</v>
+      </c>
+      <c r="R71" t="n">
+        <v>0</v>
+      </c>
+      <c r="S71" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>71</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>kdj_signal</t>
+        </is>
+      </c>
+      <c r="C72" s="2" t="n">
+        <v>45857.96875</v>
+      </c>
+      <c r="D72" s="2" t="n">
+        <v>45860.05</v>
+      </c>
+      <c r="E72" t="n">
+        <v>100</v>
+      </c>
+      <c r="F72" t="n">
+        <v>101.8437157908342</v>
+      </c>
+      <c r="G72" t="n">
+        <v>0.01843715790834239</v>
+      </c>
+      <c r="H72" t="n">
+        <v>27.05421484646217</v>
+      </c>
+      <c r="I72" t="n">
+        <v>14.80452839600052</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-0.0165297787111967</v>
+      </c>
+      <c r="K72" t="n">
+        <v>155</v>
+      </c>
+      <c r="L72" t="n">
+        <v>0.4025974025974026</v>
+      </c>
+      <c r="M72" t="n">
+        <v>0.03586922975091263</v>
+      </c>
+      <c r="N72" t="n">
+        <v>-0.02717866234109435</v>
+      </c>
+      <c r="O72" t="n">
+        <v>1.319756995423505</v>
+      </c>
+      <c r="P72" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>1.752127004494346</v>
+      </c>
+      <c r="R72" t="n">
+        <v>0.01752127004494346</v>
+      </c>
+      <c r="S72" t="n">
+        <v>0.0009158878633989259</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>72</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>kdj_signal</t>
+        </is>
+      </c>
+      <c r="C73" s="2" t="n">
+        <v>45857.97291666667</v>
+      </c>
+      <c r="D73" s="2" t="n">
+        <v>45860.05416666667</v>
+      </c>
+      <c r="E73" t="n">
+        <v>100</v>
+      </c>
+      <c r="F73" t="n">
+        <v>101.8659671398156</v>
+      </c>
+      <c r="G73" t="n">
+        <v>0.01865967139815553</v>
+      </c>
+      <c r="H73" t="n">
+        <v>28.19531012322101</v>
+      </c>
+      <c r="I73" t="n">
+        <v>14.96410476834362</v>
+      </c>
+      <c r="J73" t="n">
+        <v>-0.0165297787111967</v>
+      </c>
+      <c r="K73" t="n">
+        <v>155</v>
+      </c>
+      <c r="L73" t="n">
+        <v>0.4025974025974026</v>
+      </c>
+      <c r="M73" t="n">
+        <v>0.03586922975091263</v>
+      </c>
+      <c r="N73" t="n">
+        <v>-0.02717866234109435</v>
+      </c>
+      <c r="O73" t="n">
+        <v>1.319756995423505</v>
+      </c>
+      <c r="P73" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>1.752127004494346</v>
+      </c>
+      <c r="R73" t="n">
+        <v>0.01752127004494346</v>
+      </c>
+      <c r="S73" t="n">
+        <v>0.001138401353212064</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>73</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>kdj_signal</t>
+        </is>
+      </c>
+      <c r="C74" s="2" t="n">
+        <v>45858.93541666667</v>
+      </c>
+      <c r="D74" s="2" t="n">
+        <v>45861.01666666667</v>
+      </c>
+      <c r="E74" t="n">
+        <v>100</v>
+      </c>
+      <c r="F74" t="n">
+        <v>98.54371662480457</v>
+      </c>
+      <c r="G74" t="n">
+        <v>-0.01456283375195426</v>
+      </c>
+      <c r="H74" t="n">
+        <v>-0.9312486607075355</v>
+      </c>
+      <c r="I74" t="n">
+        <v>-10.21181632841162</v>
+      </c>
+      <c r="J74" t="n">
+        <v>-0.03310687493685487</v>
+      </c>
+      <c r="K74" t="n">
+        <v>152</v>
+      </c>
+      <c r="L74" t="n">
+        <v>0.4078947368421053</v>
+      </c>
+      <c r="M74" t="n">
+        <v>0.03799279054691796</v>
+      </c>
+      <c r="N74" t="n">
+        <v>-0.03082577378567848</v>
+      </c>
+      <c r="O74" t="n">
+        <v>1.232500790120287</v>
+      </c>
+      <c r="P74" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>1.681815967229024</v>
+      </c>
+      <c r="R74" t="n">
+        <v>0.01681815967229024</v>
+      </c>
+      <c r="S74" t="n">
+        <v>-0.0313809934242445</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>74</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>ma_cross</t>
+        </is>
+      </c>
+      <c r="C75" s="2" t="n">
+        <v>45858.93541666667</v>
+      </c>
+      <c r="D75" s="2" t="n">
+        <v>45861.01666666667</v>
+      </c>
+      <c r="E75" t="n">
+        <v>100</v>
+      </c>
+      <c r="F75" t="n">
+        <v>98.57817555815672</v>
+      </c>
+      <c r="G75" t="n">
+        <v>-0.01421824441843285</v>
+      </c>
+      <c r="H75" t="n">
+        <v>-0.9267189557670588</v>
+      </c>
+      <c r="I75" t="n">
+        <v>-10.52509465681685</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-0.03342824372463776</v>
+      </c>
+      <c r="K75" t="n">
+        <v>67</v>
+      </c>
+      <c r="L75" t="n">
+        <v>0.2121212121212121</v>
+      </c>
+      <c r="M75" t="n">
+        <v>0.06470631991911903</v>
+      </c>
+      <c r="N75" t="n">
+        <v>-0.0453573310834522</v>
+      </c>
+      <c r="O75" t="n">
+        <v>1.426590109547384</v>
+      </c>
+      <c r="P75" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>0.7424487524651844</v>
+      </c>
+      <c r="R75" t="n">
+        <v>0.007424487524651844</v>
+      </c>
+      <c r="S75" t="n">
+        <v>-0.02164273194308469</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>75</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>ma_cross</t>
+        </is>
+      </c>
+      <c r="C76" s="2" t="n">
+        <v>45858.93958333333</v>
+      </c>
+      <c r="D76" s="2" t="n">
+        <v>45861.02083333334</v>
+      </c>
+      <c r="E76" t="n">
+        <v>100</v>
+      </c>
+      <c r="F76" t="n">
+        <v>98.64100394595613</v>
+      </c>
+      <c r="G76" t="n">
+        <v>-0.01358996054043871</v>
+      </c>
+      <c r="H76" t="n">
+        <v>-0.9176827626722488</v>
+      </c>
+      <c r="I76" t="n">
+        <v>-10.0478041396279</v>
+      </c>
+      <c r="J76" t="n">
+        <v>-0.03342824372463776</v>
+      </c>
+      <c r="K76" t="n">
+        <v>67</v>
+      </c>
+      <c r="L76" t="n">
+        <v>0.2121212121212121</v>
+      </c>
+      <c r="M76" t="n">
+        <v>0.06470631991911903</v>
+      </c>
+      <c r="N76" t="n">
+        <v>-0.0453573310834522</v>
+      </c>
+      <c r="O76" t="n">
+        <v>1.426590109547384</v>
+      </c>
+      <c r="P76" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>0.7424487524651844</v>
+      </c>
+      <c r="R76" t="n">
+        <v>0.007424487524651844</v>
+      </c>
+      <c r="S76" t="n">
+        <v>-0.02101444806509056</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>76</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>momentum</t>
+        </is>
+      </c>
+      <c r="C77" s="2" t="n">
+        <v>45859.98125</v>
+      </c>
+      <c r="D77" s="2" t="n">
+        <v>45861.02083333334</v>
+      </c>
+      <c r="E77" t="n">
+        <v>100</v>
+      </c>
+      <c r="F77" t="n">
+        <v>100</v>
+      </c>
+      <c r="G77" t="n">
+        <v>0</v>
+      </c>
+      <c r="H77" t="n">
+        <v>0</v>
+      </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
+      <c r="K77" t="n">
+        <v>0</v>
+      </c>
+      <c r="L77" t="n">
+        <v>0</v>
+      </c>
+      <c r="M77" t="n">
+        <v>0</v>
+      </c>
+      <c r="N77" t="n">
+        <v>0</v>
+      </c>
+      <c r="O77" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="P77" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>0</v>
+      </c>
+      <c r="R77" t="n">
+        <v>0</v>
+      </c>
+      <c r="S77" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>77</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>momentum</t>
+        </is>
+      </c>
+      <c r="C78" s="2" t="n">
+        <v>45859.98125</v>
+      </c>
+      <c r="D78" s="2" t="n">
+        <v>45861.02083333334</v>
+      </c>
+      <c r="E78" t="n">
+        <v>100</v>
+      </c>
+      <c r="F78" t="n">
+        <v>100</v>
+      </c>
+      <c r="G78" t="n">
+        <v>0</v>
+      </c>
+      <c r="H78" t="n">
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>0</v>
+      </c>
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
+      <c r="K78" t="n">
+        <v>0</v>
+      </c>
+      <c r="L78" t="n">
+        <v>0</v>
+      </c>
+      <c r="M78" t="n">
+        <v>0</v>
+      </c>
+      <c r="N78" t="n">
+        <v>0</v>
+      </c>
+      <c r="O78" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="P78" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>0</v>
+      </c>
+      <c r="R78" t="n">
+        <v>0</v>
+      </c>
+      <c r="S78" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>78</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>momentum</t>
+        </is>
+      </c>
+      <c r="C79" s="2" t="n">
+        <v>45859.28819444445</v>
+      </c>
+      <c r="D79" s="2" t="n">
+        <v>45861.02083333334</v>
+      </c>
+      <c r="E79" t="n">
+        <v>100</v>
+      </c>
+      <c r="F79" t="n">
+        <v>100</v>
+      </c>
+      <c r="G79" t="n">
+        <v>0</v>
+      </c>
+      <c r="H79" t="n">
+        <v>0</v>
+      </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
+      <c r="K79" t="n">
+        <v>0</v>
+      </c>
+      <c r="L79" t="n">
+        <v>0</v>
+      </c>
+      <c r="M79" t="n">
+        <v>0</v>
+      </c>
+      <c r="N79" t="n">
+        <v>0</v>
+      </c>
+      <c r="O79" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="P79" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>0</v>
+      </c>
+      <c r="R79" t="n">
+        <v>0</v>
+      </c>
+      <c r="S79" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>79</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>mean_reversion</t>
+        </is>
+      </c>
+      <c r="C80" s="2" t="n">
+        <v>45859.28819444445</v>
+      </c>
+      <c r="D80" s="2" t="n">
+        <v>45861.02083333334</v>
+      </c>
+      <c r="E80" t="n">
+        <v>100</v>
+      </c>
+      <c r="F80" t="n">
+        <v>100.0088397887211</v>
+      </c>
+      <c r="G80" t="n">
+        <v>8.83978872111868e-05</v>
+      </c>
+      <c r="H80" t="n">
+        <v>0.03278992227267152</v>
+      </c>
+      <c r="I80" t="n">
+        <v>0.5591428349123194</v>
+      </c>
+      <c r="J80" t="n">
+        <v>-0.03480705473907569</v>
+      </c>
+      <c r="K80" t="n">
+        <v>39</v>
+      </c>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="n">
+        <v>0.1494209593648856</v>
+      </c>
+      <c r="N80" t="n">
+        <v>0</v>
+      </c>
+      <c r="O80" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="P80" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>0.2697749843176571</v>
+      </c>
+      <c r="R80" t="n">
+        <v>0.002697749843176571</v>
+      </c>
+      <c r="S80" t="n">
+        <v>-0.002609351955965384</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>80</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>kdj_signal</t>
+        </is>
+      </c>
+      <c r="C81" s="2" t="n">
+        <v>45855.82291666666</v>
+      </c>
+      <c r="D81" s="2" t="n">
+        <v>45861.02083333334</v>
+      </c>
+      <c r="E81" t="n">
+        <v>100</v>
+      </c>
+      <c r="F81" t="n">
+        <v>102.2923160830771</v>
+      </c>
+      <c r="G81" t="n">
+        <v>0.02292316083077111</v>
+      </c>
+      <c r="H81" t="n">
+        <v>4.230459830246084</v>
+      </c>
+      <c r="I81" t="n">
+        <v>15.65314349906673</v>
+      </c>
+      <c r="J81" t="n">
+        <v>-0.0317809930483392</v>
+      </c>
+      <c r="K81" t="n">
+        <v>87</v>
+      </c>
+      <c r="L81" t="n">
+        <v>0.3488372093023256</v>
+      </c>
+      <c r="M81" t="n">
+        <v>0.06264621831342332</v>
+      </c>
+      <c r="N81" t="n">
+        <v>-0.06410548675507155</v>
+      </c>
+      <c r="O81" t="n">
+        <v>0.9772364501774446</v>
+      </c>
+      <c r="P81" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>0.9891773095788259</v>
+      </c>
+      <c r="R81" t="n">
+        <v>0.009891773095788259</v>
+      </c>
+      <c r="S81" t="n">
+        <v>0.01303138773498285</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>81</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>macd_cross</t>
+        </is>
+      </c>
+      <c r="C82" s="2" t="n">
+        <v>45855.82291666666</v>
+      </c>
+      <c r="D82" s="2" t="n">
+        <v>45861.02083333334</v>
+      </c>
+      <c r="E82" t="n">
+        <v>100</v>
+      </c>
+      <c r="F82" t="n">
+        <v>101.7892164231293</v>
+      </c>
+      <c r="G82" t="n">
+        <v>0.01789216423129346</v>
+      </c>
+      <c r="H82" t="n">
+        <v>2.649465773380429</v>
+      </c>
+      <c r="I82" t="n">
+        <v>12.27644553628095</v>
+      </c>
+      <c r="J82" t="n">
+        <v>-0.03167600620687948</v>
+      </c>
+      <c r="K82" t="n">
+        <v>57</v>
+      </c>
+      <c r="L82" t="n">
+        <v>0.2142857142857143</v>
+      </c>
+      <c r="M82" t="n">
+        <v>0.1103555454680825</v>
+      </c>
+      <c r="N82" t="n">
+        <v>-0.0981925018521934</v>
+      </c>
+      <c r="O82" t="n">
+        <v>1.123869372777544</v>
+      </c>
+      <c r="P82" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>0.6463641459650944</v>
+      </c>
+      <c r="R82" t="n">
+        <v>0.006463641459650944</v>
+      </c>
+      <c r="S82" t="n">
+        <v>0.01142852277164252</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>82</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>macd_cross</t>
+        </is>
+      </c>
+      <c r="C83" s="2" t="n">
+        <v>45856.73958333334</v>
+      </c>
+      <c r="D83" s="2" t="n">
+        <v>45861.9375</v>
+      </c>
+      <c r="E83" t="n">
+        <v>100</v>
+      </c>
+      <c r="F83" t="n">
+        <v>98.16510779237964</v>
+      </c>
+      <c r="G83" t="n">
+        <v>-0.01834892207620356</v>
+      </c>
+      <c r="H83" t="n">
+        <v>-0.7412551050376395</v>
+      </c>
+      <c r="I83" t="n">
+        <v>-13.19093814173387</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-0.04140800648045948</v>
+      </c>
+      <c r="K83" t="n">
+        <v>56</v>
+      </c>
+      <c r="L83" t="n">
+        <v>0.2142857142857143</v>
+      </c>
+      <c r="M83" t="n">
+        <v>0.07444739428035518</v>
+      </c>
+      <c r="N83" t="n">
+        <v>-0.09458938484332374</v>
+      </c>
+      <c r="O83" t="n">
+        <v>0.7870586578363797</v>
+      </c>
+      <c r="P83" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>0.6264551730975279</v>
+      </c>
+      <c r="R83" t="n">
+        <v>0.006264551730975279</v>
+      </c>
+      <c r="S83" t="n">
+        <v>-0.02461347380717884</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>83</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>kdj_signal</t>
+        </is>
+      </c>
+      <c r="C84" s="2" t="n">
+        <v>45856.73958333334</v>
+      </c>
+      <c r="D84" s="2" t="n">
+        <v>45861.9375</v>
+      </c>
+      <c r="E84" t="n">
+        <v>100</v>
+      </c>
+      <c r="F84" t="n">
+        <v>98.58847227954007</v>
+      </c>
+      <c r="G84" t="n">
+        <v>-0.01411527720459929</v>
+      </c>
+      <c r="H84" t="n">
+        <v>-0.6457515233743787</v>
+      </c>
+      <c r="I84" t="n">
+        <v>-9.862878950658107</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-0.03817942588635295</v>
+      </c>
+      <c r="K84" t="n">
+        <v>86</v>
+      </c>
+      <c r="L84" t="n">
+        <v>0.3255813953488372</v>
+      </c>
+      <c r="M84" t="n">
+        <v>0.05592494531250366</v>
+      </c>
+      <c r="N84" t="n">
+        <v>-0.06225386359969023</v>
+      </c>
+      <c r="O84" t="n">
+        <v>0.8983369397298248</v>
+      </c>
+      <c r="P84" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>0.9622318119252045</v>
+      </c>
+      <c r="R84" t="n">
+        <v>0.009622318119252045</v>
+      </c>
+      <c r="S84" t="n">
+        <v>-0.02373759532385134</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>84</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>momentum</t>
+        </is>
+      </c>
+      <c r="C85" s="2" t="n">
+        <v>45856.73958333334</v>
+      </c>
+      <c r="D85" s="2" t="n">
+        <v>45861.9375</v>
+      </c>
+      <c r="E85" t="n">
+        <v>100</v>
+      </c>
+      <c r="F85" t="n">
+        <v>100</v>
+      </c>
+      <c r="G85" t="n">
+        <v>0</v>
+      </c>
+      <c r="H85" t="n">
+        <v>0</v>
+      </c>
+      <c r="I85" t="n">
+        <v>0</v>
+      </c>
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
+      <c r="K85" t="n">
+        <v>0</v>
+      </c>
+      <c r="L85" t="n">
+        <v>0</v>
+      </c>
+      <c r="M85" t="n">
+        <v>0</v>
+      </c>
+      <c r="N85" t="n">
+        <v>0</v>
+      </c>
+      <c r="O85" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="P85" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>0</v>
+      </c>
+      <c r="R85" t="n">
+        <v>0</v>
+      </c>
+      <c r="S85" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>85</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>momentum</t>
+        </is>
+      </c>
+      <c r="C86" s="2" t="n">
+        <v>45856.75</v>
+      </c>
+      <c r="D86" s="2" t="n">
+        <v>45861.94791666666</v>
+      </c>
+      <c r="E86" t="n">
+        <v>100</v>
+      </c>
+      <c r="F86" t="n">
+        <v>99.44461396608355</v>
+      </c>
+      <c r="G86" t="n">
+        <v>-0.005553860339164487</v>
+      </c>
+      <c r="H86" t="n">
+        <v>-0.3340640915123601</v>
+      </c>
+      <c r="I86" t="n">
+        <v>-4.990069087215079</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-0.02345638673611447</v>
+      </c>
+      <c r="K86" t="n">
+        <v>10</v>
+      </c>
+      <c r="L86" t="n">
+        <v>0</v>
+      </c>
+      <c r="M86" t="n">
+        <v>0</v>
+      </c>
+      <c r="N86" t="n">
+        <v>-0.2282882613412889</v>
+      </c>
+      <c r="O86" t="n">
+        <v>0</v>
+      </c>
+      <c r="P86" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>0.1170582276041623</v>
+      </c>
+      <c r="R86" t="n">
+        <v>0.001170582276041623</v>
+      </c>
+      <c r="S86" t="n">
+        <v>-0.00672444261520611</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>86</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>kdj_signal</t>
+        </is>
+      </c>
+      <c r="C87" s="2" t="n">
+        <v>45856.75</v>
+      </c>
+      <c r="D87" s="2" t="n">
+        <v>45861.94791666666</v>
+      </c>
+      <c r="E87" t="n">
+        <v>100</v>
+      </c>
+      <c r="F87" t="n">
+        <v>102.3899082771502</v>
+      </c>
+      <c r="G87" t="n">
+        <v>0.0238990827715017</v>
+      </c>
+      <c r="H87" t="n">
+        <v>4.60753816765054</v>
+      </c>
+      <c r="I87" t="n">
+        <v>18.51553213211317</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-0.02339641228557273</v>
+      </c>
+      <c r="K87" t="n">
+        <v>85</v>
+      </c>
+      <c r="L87" t="n">
+        <v>0.4285714285714285</v>
+      </c>
+      <c r="M87" t="n">
+        <v>0.06377314518510747</v>
+      </c>
+      <c r="N87" t="n">
+        <v>-0.0501483705075941</v>
+      </c>
+      <c r="O87" t="n">
+        <v>1.271689280022571</v>
+      </c>
+      <c r="P87" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>0.9561687597150685</v>
+      </c>
+      <c r="R87" t="n">
+        <v>0.009561687597150686</v>
+      </c>
+      <c r="S87" t="n">
+        <v>0.01433739517435101</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>87</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>kdj_signal</t>
+        </is>
+      </c>
+      <c r="C88" s="2" t="n">
+        <v>45860.21527777778</v>
+      </c>
+      <c r="D88" s="2" t="n">
+        <v>45861.94791666666</v>
+      </c>
+      <c r="E88" t="n">
+        <v>100</v>
+      </c>
+      <c r="F88" t="n">
+        <v>100.3694106767424</v>
+      </c>
+      <c r="G88" t="n">
+        <v>0.003694106767424046</v>
+      </c>
+      <c r="H88" t="n">
+        <v>2.841506525540715</v>
+      </c>
+      <c r="I88" t="n">
+        <v>4.783450762247527</v>
+      </c>
+      <c r="J88" t="n">
+        <v>-0.02201069749947926</v>
+      </c>
+      <c r="K88" t="n">
+        <v>80</v>
+      </c>
+      <c r="L88" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="M88" t="n">
+        <v>0.04126434032457687</v>
+      </c>
+      <c r="N88" t="n">
+        <v>-0.03833590435002378</v>
+      </c>
+      <c r="O88" t="n">
+        <v>1.076388858544073</v>
+      </c>
+      <c r="P88" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>0.897805784181771</v>
+      </c>
+      <c r="R88" t="n">
+        <v>0.00897805784181771</v>
+      </c>
+      <c r="S88" t="n">
+        <v>-0.005283951074393665</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>88</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>kdj_signal</t>
+        </is>
+      </c>
+      <c r="C89" s="2" t="n">
+        <v>45851.54166666666</v>
+      </c>
+      <c r="D89" s="2" t="n">
+        <v>45861.9375</v>
+      </c>
+      <c r="E89" t="n">
+        <v>100</v>
+      </c>
+      <c r="F89" t="n">
+        <v>104.964665362339</v>
+      </c>
+      <c r="G89" t="n">
+        <v>0.04964665362339019</v>
+      </c>
+      <c r="H89" t="n">
+        <v>4.862381567661832</v>
+      </c>
+      <c r="I89" t="n">
+        <v>28.18756267800515</v>
+      </c>
+      <c r="J89" t="n">
+        <v>-0.02600425102887593</v>
+      </c>
+      <c r="K89" t="n">
+        <v>88</v>
+      </c>
+      <c r="L89" t="n">
+        <v>0.4318181818181818</v>
+      </c>
+      <c r="M89" t="n">
+        <v>0.06709682434419734</v>
+      </c>
+      <c r="N89" t="n">
+        <v>-0.06327283803212363</v>
+      </c>
+      <c r="O89" t="n">
+        <v>1.060436459482539</v>
+      </c>
+      <c r="P89" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>0.9994285194822883</v>
+      </c>
+      <c r="R89" t="n">
+        <v>0.009994285194822882</v>
+      </c>
+      <c r="S89" t="n">
+        <v>0.03965236842856731</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>89</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>ma_cross</t>
+        </is>
+      </c>
+      <c r="C90" s="2" t="n">
+        <v>45851.54166666666</v>
+      </c>
+      <c r="D90" s="2" t="n">
+        <v>45861.9375</v>
+      </c>
+      <c r="E90" t="n">
+        <v>100</v>
+      </c>
+      <c r="F90" t="n">
+        <v>105.532222973532</v>
+      </c>
+      <c r="G90" t="n">
+        <v>0.05532222973532044</v>
+      </c>
+      <c r="H90" t="n">
+        <v>6.137656657556815</v>
+      </c>
+      <c r="I90" t="n">
+        <v>30.97025455942337</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-0.02577173849972946</v>
+      </c>
+      <c r="K90" t="n">
+        <v>30</v>
+      </c>
+      <c r="L90" t="n">
+        <v>0.5333333333333333</v>
+      </c>
+      <c r="M90" t="n">
+        <v>0.1691131216864501</v>
+      </c>
+      <c r="N90" t="n">
+        <v>-0.1723016930820311</v>
+      </c>
+      <c r="O90" t="n">
+        <v>0.9814942538372916</v>
+      </c>
+      <c r="P90" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>0.345800849043584</v>
+      </c>
+      <c r="R90" t="n">
+        <v>0.00345800849043584</v>
+      </c>
+      <c r="S90" t="n">
+        <v>0.0518642212448846</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>90</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>ma_cross</t>
+        </is>
+      </c>
+      <c r="C91" s="2" t="n">
+        <v>45859.875</v>
+      </c>
+      <c r="D91" s="2" t="n">
+        <v>45861.9375</v>
+      </c>
+      <c r="E91" t="n">
+        <v>100</v>
+      </c>
+      <c r="F91" t="n">
+        <v>100.4114766670565</v>
+      </c>
+      <c r="G91" t="n">
+        <v>0.00411476667056462</v>
+      </c>
+      <c r="H91" t="n">
+        <v>1.115739001035494</v>
+      </c>
+      <c r="I91" t="n">
+        <v>17.42499602613569</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-0.0142175196660263</v>
+      </c>
+      <c r="K91" t="n">
+        <v>6</v>
+      </c>
+      <c r="L91" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M91" t="n">
+        <v>0.2485875259834431</v>
+      </c>
+      <c r="N91" t="n">
+        <v>-0.139562170989467</v>
+      </c>
+      <c r="O91" t="n">
+        <v>1.78119560781413</v>
+      </c>
+      <c r="P91" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>0.07045229037019007</v>
+      </c>
+      <c r="R91" t="n">
+        <v>0.0007045229037019007</v>
+      </c>
+      <c r="S91" t="n">
+        <v>0.003410243766862719</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>91</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>ma_cross</t>
+        </is>
+      </c>
+      <c r="C92" s="2" t="n">
+        <v>45861.74583333333</v>
+      </c>
+      <c r="D92" s="2" t="n">
+        <v>45861.95208333333</v>
+      </c>
+      <c r="E92" t="n">
+        <v>100</v>
+      </c>
+      <c r="F92" t="n">
+        <v>100.0176752841157</v>
+      </c>
+      <c r="G92" t="n">
+        <v>0.0001767528411568264</v>
+      </c>
+      <c r="H92" t="n">
+        <v>0.0001767528411568264</v>
+      </c>
+      <c r="I92" t="n">
+        <v>10.89952752094369</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-0.001267916009658755</v>
+      </c>
+      <c r="K92" t="n">
+        <v>2</v>
+      </c>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="n">
+        <v>0.0005372431432091318</v>
+      </c>
+      <c r="N92" t="n">
+        <v>0</v>
+      </c>
+      <c r="O92" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="P92" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>0.0239805617609461</v>
+      </c>
+      <c r="R92" t="n">
+        <v>0.0002398056176094609</v>
+      </c>
+      <c r="S92" t="n">
+        <v>-6.305277645263449e-05</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>92</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>ma_cross</t>
+        </is>
+      </c>
+      <c r="C93" s="2" t="n">
+        <v>45861.88402777778</v>
+      </c>
+      <c r="D93" s="2" t="n">
+        <v>45861.95277777778</v>
+      </c>
+      <c r="E93" t="n">
+        <v>100</v>
+      </c>
+      <c r="F93" t="n">
+        <v>99.95065359618248</v>
+      </c>
+      <c r="G93" t="n">
+        <v>-0.0004934640381752331</v>
+      </c>
+      <c r="H93" t="n">
+        <v>-0.0004934640381752331</v>
+      </c>
+      <c r="I93" t="n">
+        <v>-12.62916680299015</v>
+      </c>
+      <c r="J93" t="n">
+        <v>-0.002058571764883994</v>
+      </c>
+      <c r="K93" t="n">
+        <v>4</v>
+      </c>
+      <c r="L93" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="M93" t="n">
+        <v>0.0002760352985635706</v>
+      </c>
+      <c r="N93" t="n">
+        <v>-0.002573045652789041</v>
+      </c>
+      <c r="O93" t="n">
+        <v>0.1072795961720941</v>
+      </c>
+      <c r="P93" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>0.04732165404755317</v>
+      </c>
+      <c r="R93" t="n">
+        <v>0.0004732165404755317</v>
+      </c>
+      <c r="S93" t="n">
+        <v>-0.0009666805786507648</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>93</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>ma_cross</t>
+        </is>
+      </c>
+      <c r="C94" s="2" t="n">
+        <v>45861.25902777778</v>
+      </c>
+      <c r="D94" s="2" t="n">
+        <v>45861.95277777778</v>
+      </c>
+      <c r="E94" t="n">
+        <v>100</v>
+      </c>
+      <c r="F94" t="n">
+        <v>99.95684904334811</v>
+      </c>
+      <c r="G94" t="n">
+        <v>-0.0004315095665188551</v>
+      </c>
+      <c r="H94" t="n">
+        <v>-0.0004315095665188551</v>
+      </c>
+      <c r="I94" t="n">
+        <v>-0.3952622422055313</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-0.01930187444715706</v>
+      </c>
+      <c r="K94" t="n">
+        <v>48</v>
+      </c>
+      <c r="L94" t="n">
+        <v>0.4166666666666667</v>
+      </c>
+      <c r="M94" t="n">
+        <v>0.04594181137913438</v>
+      </c>
+      <c r="N94" t="n">
+        <v>-0.02554819340728048</v>
+      </c>
+      <c r="O94" t="n">
+        <v>1.798241098567945</v>
+      </c>
+      <c r="P94" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q94" t="n">
+        <v>0.5410278445854617</v>
+      </c>
+      <c r="R94" t="n">
+        <v>0.005410278445854617</v>
+      </c>
+      <c r="S94" t="n">
+        <v>-0.005841788012373473</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/backtest_results.xlsx
+++ b/backtest_results.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S94"/>
+  <dimension ref="A1:S95"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5311,6 +5311,67 @@
         <v>-0.005841788012373473</v>
       </c>
     </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>94</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>ma_cross</t>
+        </is>
+      </c>
+      <c r="C95" s="2" t="n">
+        <v>45861.34166666667</v>
+      </c>
+      <c r="D95" s="2" t="n">
+        <v>45862.03541666667</v>
+      </c>
+      <c r="E95" t="n">
+        <v>100</v>
+      </c>
+      <c r="F95" t="n">
+        <v>98.09793946454175</v>
+      </c>
+      <c r="G95" t="n">
+        <v>-0.01902060535458247</v>
+      </c>
+      <c r="H95" t="n">
+        <v>-0.01902060535458247</v>
+      </c>
+      <c r="I95" t="n">
+        <v>-24.36307936968074</v>
+      </c>
+      <c r="J95" t="n">
+        <v>-0.02555892178638148</v>
+      </c>
+      <c r="K95" t="n">
+        <v>46</v>
+      </c>
+      <c r="L95" t="n">
+        <v>0.3043478260869565</v>
+      </c>
+      <c r="M95" t="n">
+        <v>0.03639369516301194</v>
+      </c>
+      <c r="N95" t="n">
+        <v>-0.02563308711508255</v>
+      </c>
+      <c r="O95" t="n">
+        <v>1.419793683047947</v>
+      </c>
+      <c r="P95" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q95" t="n">
+        <v>0.5141783878104489</v>
+      </c>
+      <c r="R95" t="n">
+        <v>0.005141783878104489</v>
+      </c>
+      <c r="S95" t="n">
+        <v>-0.02416238923268696</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/backtest_results.xlsx
+++ b/backtest_results.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S95"/>
+  <dimension ref="A1:S102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5372,6 +5372,437 @@
         <v>-0.02416238923268696</v>
       </c>
     </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>95</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>ma_cross</t>
+        </is>
+      </c>
+      <c r="C96" s="2" t="n">
+        <v>45862.21180555555</v>
+      </c>
+      <c r="D96" s="2" t="n">
+        <v>45862.90555555555</v>
+      </c>
+      <c r="E96" t="n">
+        <v>100</v>
+      </c>
+      <c r="F96" t="n">
+        <v>99.51936052772636</v>
+      </c>
+      <c r="G96" t="n">
+        <v>-0.004806394722736371</v>
+      </c>
+      <c r="H96" t="n">
+        <v>-0.004806394722736371</v>
+      </c>
+      <c r="I96" t="n">
+        <v>-6.291060340109751</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-0.02907255847464081</v>
+      </c>
+      <c r="K96" t="n">
+        <v>61</v>
+      </c>
+      <c r="L96" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M96" t="n">
+        <v>0.05416033350990754</v>
+      </c>
+      <c r="N96" t="n">
+        <v>-0.03494128743295164</v>
+      </c>
+      <c r="O96" t="n">
+        <v>1.550038292488079</v>
+      </c>
+      <c r="P96" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q96" t="n">
+        <v>0.6816183855946392</v>
+      </c>
+      <c r="R96" t="n">
+        <v>0.006816183855946392</v>
+      </c>
+      <c r="S96" t="n">
+        <v>-0.01162257857868276</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>96</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>momentum</t>
+        </is>
+      </c>
+      <c r="C97" s="2" t="n">
+        <v>45860.825</v>
+      </c>
+      <c r="D97" s="2" t="n">
+        <v>45862.90625</v>
+      </c>
+      <c r="E97" t="n">
+        <v>100</v>
+      </c>
+      <c r="F97" t="n">
+        <v>100</v>
+      </c>
+      <c r="G97" t="n">
+        <v>0</v>
+      </c>
+      <c r="H97" t="n">
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>0</v>
+      </c>
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
+      <c r="K97" t="n">
+        <v>0</v>
+      </c>
+      <c r="L97" t="n">
+        <v>0</v>
+      </c>
+      <c r="M97" t="n">
+        <v>0</v>
+      </c>
+      <c r="N97" t="n">
+        <v>0</v>
+      </c>
+      <c r="O97" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="P97" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q97" t="n">
+        <v>0</v>
+      </c>
+      <c r="R97" t="n">
+        <v>0</v>
+      </c>
+      <c r="S97" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>97</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>kdj_signal</t>
+        </is>
+      </c>
+      <c r="C98" s="2" t="n">
+        <v>45860.825</v>
+      </c>
+      <c r="D98" s="2" t="n">
+        <v>45862.90625</v>
+      </c>
+      <c r="E98" t="n">
+        <v>100</v>
+      </c>
+      <c r="F98" t="n">
+        <v>97.28432816297385</v>
+      </c>
+      <c r="G98" t="n">
+        <v>-0.0271567183702615</v>
+      </c>
+      <c r="H98" t="n">
+        <v>-0.9934260508838578</v>
+      </c>
+      <c r="I98" t="n">
+        <v>-19.37188340526407</v>
+      </c>
+      <c r="J98" t="n">
+        <v>-0.04758558963291593</v>
+      </c>
+      <c r="K98" t="n">
+        <v>181</v>
+      </c>
+      <c r="L98" t="n">
+        <v>0.3111111111111111</v>
+      </c>
+      <c r="M98" t="n">
+        <v>0.02799548344080893</v>
+      </c>
+      <c r="N98" t="n">
+        <v>-0.03056678941099664</v>
+      </c>
+      <c r="O98" t="n">
+        <v>0.9158790955891932</v>
+      </c>
+      <c r="P98" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q98" t="n">
+        <v>1.983688739566099</v>
+      </c>
+      <c r="R98" t="n">
+        <v>0.01983688739566099</v>
+      </c>
+      <c r="S98" t="n">
+        <v>-0.04699360576592249</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>98</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>bollinger_breakout</t>
+        </is>
+      </c>
+      <c r="C99" s="2" t="n">
+        <v>45860.825</v>
+      </c>
+      <c r="D99" s="2" t="n">
+        <v>45862.90625</v>
+      </c>
+      <c r="E99" t="n">
+        <v>100</v>
+      </c>
+      <c r="F99" t="n">
+        <v>97.16584945379191</v>
+      </c>
+      <c r="G99" t="n">
+        <v>-0.02834150546208093</v>
+      </c>
+      <c r="H99" t="n">
+        <v>-0.9947369021295193</v>
+      </c>
+      <c r="I99" t="n">
+        <v>-31.36564122224685</v>
+      </c>
+      <c r="J99" t="n">
+        <v>-0.03668213872677665</v>
+      </c>
+      <c r="K99" t="n">
+        <v>51</v>
+      </c>
+      <c r="L99" t="n">
+        <v>0</v>
+      </c>
+      <c r="M99" t="n">
+        <v>0</v>
+      </c>
+      <c r="N99" t="n">
+        <v>-0.09725862407320024</v>
+      </c>
+      <c r="O99" t="n">
+        <v>0</v>
+      </c>
+      <c r="P99" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q99" t="n">
+        <v>0.4707500587004934</v>
+      </c>
+      <c r="R99" t="n">
+        <v>0.004707500587004933</v>
+      </c>
+      <c r="S99" t="n">
+        <v>-0.03304900604908587</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>99</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>bollinger_breakout</t>
+        </is>
+      </c>
+      <c r="C100" s="2" t="n">
+        <v>45859.4375</v>
+      </c>
+      <c r="D100" s="2" t="n">
+        <v>45862.90625</v>
+      </c>
+      <c r="E100" t="n">
+        <v>100</v>
+      </c>
+      <c r="F100" t="n">
+        <v>96.11373666503394</v>
+      </c>
+      <c r="G100" t="n">
+        <v>-0.0388626333496606</v>
+      </c>
+      <c r="H100" t="n">
+        <v>-0.9919542871534064</v>
+      </c>
+      <c r="I100" t="n">
+        <v>-31.28704662297111</v>
+      </c>
+      <c r="J100" t="n">
+        <v>-0.04846805128946053</v>
+      </c>
+      <c r="K100" t="n">
+        <v>55</v>
+      </c>
+      <c r="L100" t="n">
+        <v>0</v>
+      </c>
+      <c r="M100" t="n">
+        <v>0</v>
+      </c>
+      <c r="N100" t="n">
+        <v>-0.1236390034186289</v>
+      </c>
+      <c r="O100" t="n">
+        <v>0</v>
+      </c>
+      <c r="P100" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q100" t="n">
+        <v>0.5083630235668912</v>
+      </c>
+      <c r="R100" t="n">
+        <v>0.005083630235668912</v>
+      </c>
+      <c r="S100" t="n">
+        <v>-0.04394626358532951</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>100</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>macd_cross</t>
+        </is>
+      </c>
+      <c r="C101" s="2" t="n">
+        <v>45859.4375</v>
+      </c>
+      <c r="D101" s="2" t="n">
+        <v>45862.90625</v>
+      </c>
+      <c r="E101" t="n">
+        <v>100</v>
+      </c>
+      <c r="F101" t="n">
+        <v>97.70365077753615</v>
+      </c>
+      <c r="G101" t="n">
+        <v>-0.02296349222463846</v>
+      </c>
+      <c r="H101" t="n">
+        <v>-0.9407784638710612</v>
+      </c>
+      <c r="I101" t="n">
+        <v>-12.82681108278796</v>
+      </c>
+      <c r="J101" t="n">
+        <v>-0.04998062851557368</v>
+      </c>
+      <c r="K101" t="n">
+        <v>77</v>
+      </c>
+      <c r="L101" t="n">
+        <v>0.3157894736842105</v>
+      </c>
+      <c r="M101" t="n">
+        <v>0.07427746139194413</v>
+      </c>
+      <c r="N101" t="n">
+        <v>-0.05401797101645051</v>
+      </c>
+      <c r="O101" t="n">
+        <v>1.375050932018973</v>
+      </c>
+      <c r="P101" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q101" t="n">
+        <v>0.8493277222816022</v>
+      </c>
+      <c r="R101" t="n">
+        <v>0.008493277222816023</v>
+      </c>
+      <c r="S101" t="n">
+        <v>-0.03145676944745449</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>101</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>mean_reversion</t>
+        </is>
+      </c>
+      <c r="C102" s="2" t="n">
+        <v>45862.24583333333</v>
+      </c>
+      <c r="D102" s="2" t="n">
+        <v>45862.93958333333</v>
+      </c>
+      <c r="E102" t="n">
+        <v>100</v>
+      </c>
+      <c r="F102" t="n">
+        <v>105.9561270203534</v>
+      </c>
+      <c r="G102" t="n">
+        <v>0.05956127020353364</v>
+      </c>
+      <c r="H102" t="n">
+        <v>0.05956127020353364</v>
+      </c>
+      <c r="I102" t="n">
+        <v>16.32532732941192</v>
+      </c>
+      <c r="J102" t="n">
+        <v>-0.04996870131699457</v>
+      </c>
+      <c r="K102" t="n">
+        <v>83</v>
+      </c>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="n">
+        <v>0.3116861957913759</v>
+      </c>
+      <c r="N102" t="n">
+        <v>0</v>
+      </c>
+      <c r="O102" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="P102" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q102" t="n">
+        <v>0.4525811395280628</v>
+      </c>
+      <c r="R102" t="n">
+        <v>0.004525811395280628</v>
+      </c>
+      <c r="S102" t="n">
+        <v>0.05503545880825302</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
